--- a/brown_shots.xlsx
+++ b/brown_shots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA9213-71F5-864F-9E9B-E3D95A447921}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7F9376-1BF0-6C4D-A3EF-EC37A6F8546F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="460" windowWidth="12980" windowHeight="12380" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="16620" windowHeight="11960" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,19 @@
     <t>result</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
     <t>#12 - C. Mahon</t>
   </si>
   <si>
     <t>Midfield</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>Goal</t>
   </si>
   <si>
     <t>#47 - B. Evans</t>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC312E-ABDF-E24A-B5B9-9C6AB014BA4C}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
         <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -544,16 +544,16 @@
         <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -668,7 +668,7 @@
         <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -677,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -761,16 +761,16 @@
         <v>282</v>
       </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -854,7 +854,7 @@
         <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -894,7 +894,7 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -956,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1077,10 +1077,10 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1133,16 +1133,16 @@
         <v>342</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -1195,7 +1195,7 @@
         <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -1226,7 +1226,7 @@
         <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -1257,7 +1257,7 @@
         <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -1288,7 +1288,7 @@
         <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1319,16 +1319,16 @@
         <v>258</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>246</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -1412,7 +1412,7 @@
         <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>

--- a/brown_shots.xlsx
+++ b/brown_shots.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7F9376-1BF0-6C4D-A3EF-EC37A6F8546F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786506B-72AC-8C43-AF88-4FDEF2645F37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="16620" windowHeight="11960" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
+    <workbookView xWindow="8940" yWindow="460" windowWidth="13720" windowHeight="11960" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
   <si>
     <t>sh_num</t>
   </si>
@@ -106,6 +111,9 @@
   </si>
   <si>
     <t>#26- N. Andrews</t>
+  </si>
+  <si>
+    <t>Defensive Midfield</t>
   </si>
 </sst>
 </file>
@@ -459,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC312E-ABDF-E24A-B5B9-9C6AB014BA4C}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">

--- a/brown_shots.xlsx
+++ b/brown_shots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786506B-72AC-8C43-AF88-4FDEF2645F37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D8AC8-3B83-284E-9B0D-1F8AD238D3B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8940" yWindow="460" windowWidth="13720" windowHeight="11960" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
   </bookViews>
@@ -98,22 +98,22 @@
     <t>F</t>
   </si>
   <si>
-    <t>#35- W. Cheek</t>
-  </si>
-  <si>
-    <t>#48- K. Salvatore</t>
-  </si>
-  <si>
-    <t>#9- S. Evans</t>
-  </si>
-  <si>
-    <t>#24- J. Lang</t>
-  </si>
-  <si>
-    <t>#26- N. Andrews</t>
-  </si>
-  <si>
     <t>Defensive Midfield</t>
+  </si>
+  <si>
+    <t>#35 - W. Cheek</t>
+  </si>
+  <si>
+    <t>#48 - K. Salvatore</t>
+  </si>
+  <si>
+    <t>#9 - S. Evans</t>
+  </si>
+  <si>
+    <t>#24 - J. Lang</t>
+  </si>
+  <si>
+    <t>#26 - N. Andrews</t>
   </si>
 </sst>
 </file>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC312E-ABDF-E24A-B5B9-9C6AB014BA4C}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1054,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
@@ -1209,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
         <v>9</v>
@@ -1302,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>

--- a/brown_shots.xlsx
+++ b/brown_shots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D8AC8-3B83-284E-9B0D-1F8AD238D3B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AABB73-2F0F-8D45-BB24-8B1E675ACAE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8940" yWindow="460" windowWidth="13720" windowHeight="11960" xr2:uid="{E7FACA18-4C05-B649-B97D-C07BF93FF78E}"/>
   </bookViews>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC312E-ABDF-E24A-B5B9-9C6AB014BA4C}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,8 +517,8 @@
         <v>7.5</v>
       </c>
       <c r="E2">
-        <f>(C2:C40*12) + 150</f>
-        <v>198</v>
+        <f>(C2:C40*12) + 165</f>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -548,8 +548,8 @@
         <v>75</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="1">(C3:C41*12) + 150</f>
-        <v>282</v>
+        <f t="shared" ref="E3:E31" si="1">(C3:C41*12) + 165</f>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -611,7 +611,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -673,7 +673,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -766,7 +766,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -797,7 +797,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -828,7 +828,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
